--- a/final_data_pipeline/output/312120_elec_options.xlsx
+++ b/final_data_pipeline/output/312120_elec_options.xlsx
@@ -1775,7 +1775,7 @@
         <v>77</v>
       </c>
       <c r="AD12">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE12">
         <v>8000</v>
@@ -1870,7 +1870,7 @@
         <v>77</v>
       </c>
       <c r="AD13">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE13">
         <v>8000</v>
@@ -1968,7 +1968,7 @@
         <v>77</v>
       </c>
       <c r="AD14">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE14">
         <v>8000</v>
@@ -2066,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="AD15">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE15">
         <v>8000</v>
@@ -2161,7 +2161,7 @@
         <v>77</v>
       </c>
       <c r="AD16">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE16">
         <v>8000</v>
@@ -2256,7 +2256,7 @@
         <v>77</v>
       </c>
       <c r="AD17">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE17">
         <v>8000</v>
@@ -2351,7 +2351,7 @@
         <v>77</v>
       </c>
       <c r="AD18">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE18">
         <v>8000</v>
@@ -2446,7 +2446,7 @@
         <v>77</v>
       </c>
       <c r="AD19">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE19">
         <v>8000</v>
@@ -2541,7 +2541,7 @@
         <v>77</v>
       </c>
       <c r="AD20">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE20">
         <v>8000</v>
@@ -2636,7 +2636,7 @@
         <v>77</v>
       </c>
       <c r="AD21">
-        <v>10</v>
+        <v>17.71296296296294</v>
       </c>
       <c r="AE21">
         <v>8000</v>
@@ -2734,7 +2734,7 @@
         <v>77</v>
       </c>
       <c r="AD22">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE22">
         <v>8000</v>
@@ -2829,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="AD23">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE23">
         <v>8000</v>
@@ -2924,7 +2924,7 @@
         <v>77</v>
       </c>
       <c r="AD24">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE24">
         <v>8000</v>
@@ -3019,7 +3019,7 @@
         <v>77</v>
       </c>
       <c r="AD25">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE25">
         <v>8000</v>
@@ -3114,7 +3114,7 @@
         <v>77</v>
       </c>
       <c r="AD26">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE26">
         <v>8000</v>
@@ -9423,7 +9423,7 @@
         <v>77</v>
       </c>
       <c r="AD92">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE92">
         <v>8000</v>
@@ -9518,7 +9518,7 @@
         <v>77</v>
       </c>
       <c r="AD93">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE93">
         <v>8000</v>
@@ -9613,7 +9613,7 @@
         <v>77</v>
       </c>
       <c r="AD94">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE94">
         <v>8000</v>
@@ -9708,7 +9708,7 @@
         <v>77</v>
       </c>
       <c r="AD95">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE95">
         <v>8000</v>
@@ -9806,7 +9806,7 @@
         <v>77</v>
       </c>
       <c r="AD96">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE96">
         <v>8000</v>
@@ -9901,7 +9901,7 @@
         <v>77</v>
       </c>
       <c r="AD97">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE97">
         <v>8000</v>
@@ -9996,7 +9996,7 @@
         <v>77</v>
       </c>
       <c r="AD98">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE98">
         <v>8000</v>
@@ -10091,7 +10091,7 @@
         <v>77</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE99">
         <v>8000</v>
@@ -10189,7 +10189,7 @@
         <v>77</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE100">
         <v>8000</v>
@@ -10284,7 +10284,7 @@
         <v>77</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE101">
         <v>8000</v>
@@ -11335,7 +11335,7 @@
         <v>77</v>
       </c>
       <c r="AD112">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE112">
         <v>8000</v>
@@ -11430,7 +11430,7 @@
         <v>77</v>
       </c>
       <c r="AD113">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE113">
         <v>8000</v>
@@ -11525,7 +11525,7 @@
         <v>77</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE114">
         <v>8000</v>
@@ -11620,7 +11620,7 @@
         <v>77</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE115">
         <v>8000</v>
@@ -11718,7 +11718,7 @@
         <v>77</v>
       </c>
       <c r="AD116">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE116">
         <v>8000</v>
@@ -11813,7 +11813,7 @@
         <v>77</v>
       </c>
       <c r="AD117">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE117">
         <v>8000</v>
@@ -11908,7 +11908,7 @@
         <v>77</v>
       </c>
       <c r="AD118">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE118">
         <v>8000</v>
@@ -12003,7 +12003,7 @@
         <v>77</v>
       </c>
       <c r="AD119">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE119">
         <v>8000</v>
@@ -12101,7 +12101,7 @@
         <v>77</v>
       </c>
       <c r="AD120">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE120">
         <v>8000</v>
@@ -12199,7 +12199,7 @@
         <v>77</v>
       </c>
       <c r="AD121">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE121">
         <v>8000</v>
@@ -12294,7 +12294,7 @@
         <v>77</v>
       </c>
       <c r="AD122">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE122">
         <v>8000</v>
@@ -12389,7 +12389,7 @@
         <v>77</v>
       </c>
       <c r="AD123">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE123">
         <v>8000</v>
@@ -12484,7 +12484,7 @@
         <v>77</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE124">
         <v>8000</v>
@@ -12579,7 +12579,7 @@
         <v>77</v>
       </c>
       <c r="AD125">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE125">
         <v>8000</v>
@@ -12674,7 +12674,7 @@
         <v>77</v>
       </c>
       <c r="AD126">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AE126">
         <v>8000</v>
@@ -15159,7 +15159,7 @@
         <v>77</v>
       </c>
       <c r="AD152">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE152">
         <v>8000</v>
@@ -15254,7 +15254,7 @@
         <v>77</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE153">
         <v>8000</v>
@@ -15349,7 +15349,7 @@
         <v>77</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE154">
         <v>8000</v>
@@ -15444,7 +15444,7 @@
         <v>77</v>
       </c>
       <c r="AD155">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE155">
         <v>8000</v>
@@ -15542,7 +15542,7 @@
         <v>77</v>
       </c>
       <c r="AD156">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE156">
         <v>8000</v>
@@ -15637,7 +15637,7 @@
         <v>77</v>
       </c>
       <c r="AD157">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE157">
         <v>8000</v>
@@ -15732,7 +15732,7 @@
         <v>77</v>
       </c>
       <c r="AD158">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE158">
         <v>8000</v>
@@ -15827,7 +15827,7 @@
         <v>77</v>
       </c>
       <c r="AD159">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE159">
         <v>8000</v>
@@ -15922,7 +15922,7 @@
         <v>77</v>
       </c>
       <c r="AD160">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE160">
         <v>8000</v>
@@ -16020,7 +16020,7 @@
         <v>77</v>
       </c>
       <c r="AD161">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="AE161">
         <v>8000</v>
